--- a/work.xlsx
+++ b/work.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19830" windowHeight="8370" tabRatio="922" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19830" windowHeight="8370" tabRatio="922" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="人生&amp;生活" sheetId="1" r:id="rId1"/>
-    <sheet name="2014年工作" sheetId="2" r:id="rId2"/>
-    <sheet name="2014年工作学习日志" sheetId="3" r:id="rId3"/>
-    <sheet name="计划任务" sheetId="4" r:id="rId4"/>
-    <sheet name="C# 问题列表" sheetId="5" r:id="rId5"/>
+    <sheet name="人生&amp;生活" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="2014年工作" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="近期计划任务" sheetId="3" r:id="rId3"/>
+    <sheet name="2014年工作学习日志" sheetId="4" r:id="rId4"/>
+    <sheet name="计划任务" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="C++ 问题列表" sheetId="6" r:id="rId6"/>
-    <sheet name="2013年已完成" sheetId="7" r:id="rId7"/>
-    <sheet name="2013年工作任务" sheetId="8" r:id="rId8"/>
-    <sheet name="2012年工作学习" sheetId="9" r:id="rId9"/>
-    <sheet name="学习参考资料" sheetId="10" r:id="rId10"/>
+    <sheet name="C# 问题列表" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="2013年已完成" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="2013年工作任务" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="2012年工作学习" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="学习参考资料" sheetId="11" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472">
   <si>
     <t>事项</t>
   </si>
@@ -74,6 +75,10 @@
   </si>
   <si>
     <t>不要一味的悲观，发现自己的优势。</t>
+  </si>
+  <si>
+    <t>对未来如此恐惧，恐惧到我必须找各种事情来转移注意力。
+如何才能安静的学习、工作、生活</t>
   </si>
   <si>
     <t>序号</t>
@@ -186,6 +191,15 @@
 4、C++编程规范:101条规则准则与最佳实践(阅读中)
 5、C++ Templates
 6、C++ 0X 相关(阅读中)</t>
+  </si>
+  <si>
+    <t>C++ 基础知识</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCP 协议 Socket </t>
+  </si>
+  <si>
+    <t>STL 学习/数据结构</t>
   </si>
   <si>
     <t>时间</t>
@@ -1088,7 +1102,8 @@
     <t>Linux</t>
   </si>
   <si>
-    <t>1、Linux 计划学习中X220电脑已安装ubuntu</t>
+    <t>1、Linux 计划学习中X220电脑已安装ubuntu
+2、</t>
   </si>
   <si>
     <t>多线程服务器开发</t>
@@ -1115,15 +1130,12 @@
     <t>JavaScript语言学习</t>
   </si>
   <si>
-    <t>暂停</t>
+    <t>未开始</t>
   </si>
   <si>
     <t>Java语言学习</t>
   </si>
   <si>
-    <t>未开始</t>
-  </si>
-  <si>
     <t>Java虚拟机学习</t>
   </si>
   <si>
@@ -1134,6 +1146,80 @@
   </si>
   <si>
     <t>研究内容</t>
+  </si>
+  <si>
+    <t>C++ block scope</t>
+  </si>
+  <si>
+    <t>1C#、JAVA 中没有这个概念</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>winDBG SOS调试技巧</t>
+  </si>
+  <si>
+    <t>高级调试技巧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ 函数返回值 左值OR右值 </t>
+  </si>
+  <si>
+    <t>1、返回的内置类型不能修改 看做右值
+2、返回的自定义类型可以修改  看做左值</t>
+  </si>
+  <si>
+    <t>C++ 如何处理踩内存的问题？ 内存重叠</t>
+  </si>
+  <si>
+    <t>C++ 如何处理内存溢出和内存泄露？</t>
+  </si>
+  <si>
+    <t>c和c++如何动态分配和释放内存，以及他们的区别</t>
+  </si>
+  <si>
+    <t>递归遍历某个文件夹下所有的文件和文件夹</t>
+  </si>
+  <si>
+    <t>什么是AppDomain概念</t>
+  </si>
+  <si>
+    <t>线程和进程的区别，简述什么是“线程安全”</t>
+  </si>
+  <si>
+    <t>贪食蛇的算法实现</t>
+  </si>
+  <si>
+    <t>进程同步 线程同步
+3、在win32平台下，以下哪种方式无法实现进程同步？
+A、Critical Section      B、Event      C、Mutex         D、Semaphore</t>
+  </si>
+  <si>
+    <t>对象的内存模型  对象 方法 虚方法表  类对象如何保存非虚函数地址 以及如何调用？
+这里涉及对象的大小？</t>
+  </si>
+  <si>
+    <t>C++ void putValues( int (&amp;arr)[10] ); //不能写成&amp;arr[10]，因为下标操作符的优先级较高</t>
+  </si>
+  <si>
+    <t>向函数传递引用数组时:下标操作符的优先级较高</t>
+  </si>
+  <si>
+    <t>运算符优先级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模板类的定义和实现必须要在同一个文件中，通常是头文件，编译器要看到模板实现才能展开模板因为STL的所有内容都在头文件里所以你只需要包含头文件，事实上模板必须都在头文件里，因为模板是源码级的，不可能编译到lib里。
+</t>
+  </si>
+  <si>
+    <t>C++模板</t>
+  </si>
+  <si>
+    <t>Node.js  删除文件以及文件夹</t>
+  </si>
+  <si>
+    <t>Node.js</t>
   </si>
   <si>
     <t>比较C# 对象是否相等 Equals与== 比较
@@ -1229,80 +1315,6 @@
   </si>
   <si>
     <t>http://www.cnblogs.com/chiname/articles/409693.html</t>
-  </si>
-  <si>
-    <t>C++ block scope</t>
-  </si>
-  <si>
-    <t>1C#、JAVA 中没有这个概念</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>winDBG SOS调试技巧</t>
-  </si>
-  <si>
-    <t>高级调试技巧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ 函数返回值 左值OR右值 </t>
-  </si>
-  <si>
-    <t>1、返回的内置类型不能修改 看做右值
-2、返回的自定义类型可以修改  看做左值</t>
-  </si>
-  <si>
-    <t>C++ 如何处理踩内存的问题？ 内存重叠</t>
-  </si>
-  <si>
-    <t>C++ 如何处理内存溢出和内存泄露？</t>
-  </si>
-  <si>
-    <t>c和c++如何动态分配和释放内存，以及他们的区别</t>
-  </si>
-  <si>
-    <t>递归遍历某个文件夹下所有的文件和文件夹</t>
-  </si>
-  <si>
-    <t>什么是AppDomain概念</t>
-  </si>
-  <si>
-    <t>线程和进程的区别，简述什么是“线程安全”</t>
-  </si>
-  <si>
-    <t>贪食蛇的算法实现</t>
-  </si>
-  <si>
-    <t>进程同步 线程同步
-3、在win32平台下，以下哪种方式无法实现进程同步？
-A、Critical Section      B、Event      C、Mutex         D、Semaphore</t>
-  </si>
-  <si>
-    <t>对象的内存模型  对象 方法 虚方法表  类对象如何保存非虚函数地址 以及如何调用？
-这里涉及对象的大小？</t>
-  </si>
-  <si>
-    <t>C++ void putValues( int (&amp;arr)[10] ); //不能写成&amp;arr[10]，因为下标操作符的优先级较高</t>
-  </si>
-  <si>
-    <t>向函数传递引用数组时:下标操作符的优先级较高</t>
-  </si>
-  <si>
-    <t>运算符优先级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模板类的定义和实现必须要在同一个文件中，通常是头文件，编译器要看到模板实现才能展开模板因为STL的所有内容都在头文件里所以你只需要包含头文件，事实上模板必须都在头文件里，因为模板是源码级的，不可能编译到lib里。
-</t>
-  </si>
-  <si>
-    <t>C++模板</t>
-  </si>
-  <si>
-    <t>Node.js  删除文件以及文件夹</t>
-  </si>
-  <si>
-    <t>Node.js</t>
   </si>
   <si>
     <t>计划完成时间</t>
@@ -2213,12 +2225,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2269,14 +2281,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2290,11 +2302,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2330,7 +2337,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2388,12 +2395,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2489,22 +2490,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyProtection="0">
@@ -2646,50 +2647,53 @@
     <xf numFmtId="14" fontId="7" fillId="7" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2738,11 +2742,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3170,11 +3171,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -3198,10 +3199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3215,12 +3216,12 @@
       </c>
     </row>
     <row r="2" ht="40.5" customHeight="1" spans="1:1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3287,6 +3288,11 @@
     <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="33" customHeight="1" spans="1:1">
+      <c r="A34" s="66" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3297,6 +3303,707 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="40.375" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="69.375" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="4.25" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="65.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="81" customHeight="1" spans="1:8">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:8">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A5" s="8">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="58.5" customHeight="1" spans="1:8">
+      <c r="A6" s="8">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" ht="45.75" customHeight="1" spans="1:8">
+      <c r="A7" s="8">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" ht="51.95" customHeight="1" spans="1:8">
+      <c r="A8" s="8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="48" customHeight="1" spans="1:8">
+      <c r="A9" s="8">
+        <v>11</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="148.5" customHeight="1" spans="1:8">
+      <c r="A10" s="8">
+        <v>12</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:8">
+      <c r="A11" s="18">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="48" customHeight="1" spans="1:8">
+      <c r="A12" s="8">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="81.95" customHeight="1" spans="1:8">
+      <c r="A13" s="8">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" ht="42.95" customHeight="1" spans="1:8">
+      <c r="A14" s="8">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" ht="48" customHeight="1" spans="1:8">
+      <c r="A15" s="8">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="1:8">
+      <c r="A16" s="8">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="1:8">
+      <c r="A17" s="8">
+        <v>22</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="1:8">
+      <c r="A18" s="8">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" ht="26.1" customHeight="1" spans="1:8">
+      <c r="A19" s="8">
+        <v>24</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" ht="48" customHeight="1" spans="1:8">
+      <c r="A20" s="8">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" ht="36" customHeight="1" spans="1:8">
+      <c r="A21" s="8">
+        <v>26</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" ht="72" customHeight="1" spans="1:8">
+      <c r="A22" s="8">
+        <v>27</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:8">
+      <c r="A23" s="8">
+        <v>28</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" ht="54" customHeight="1" spans="1:8">
+      <c r="A24" s="8">
+        <v>29</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="8">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="8">
+        <v>31</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" ht="69.95" customHeight="1" spans="1:8">
+      <c r="A27" s="8">
+        <v>32</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="8">
+        <v>33</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="18">
+        <v>34</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="18">
+        <v>35</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="18"/>
+      <c r="B31" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:8">
+      <c r="A32" s="18"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:8">
+      <c r="A33" s="18"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:8">
+      <c r="A34" s="18"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:8">
+      <c r="A35" s="18"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E6 E8:E16 A11:B11 D17:D26 D28 C30 C32 C34">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Doing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D24" r:id="rId1" display="http://www.cnblogs.com/lr-ting/archive/2012/09/23/2699278.html"/>
+    <hyperlink ref="D27" r:id="rId2" display="出处:http://www.cnblogs.com/FreeDong/archive/2012/09/28/2706083.html&#10;C# 类型构造 静态构造函数执行顺序&#10;ClassB obj=null;这样为什么不回执行类型构造函数?&#10;还是基础知识没有掌握牢固:因为这个构造函数是属于类的，而不属于任何一个实例，所以这个构造函数只会被执行一次，而且是在创建此类的第一个实例或引用任何静态成员之前，由.NET自动调用。"/>
+    <hyperlink ref="D30" r:id="rId3" display="http://www.cnblogs.com/aigongsi/archive/2012/10/09/2716086.html"/>
+  </hyperlinks>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C17"/>
@@ -3314,159 +4021,159 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" ht="38.1" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" ht="39.75" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" ht="54.75" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" ht="39.75" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" ht="23.25" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" ht="40.5" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -3477,18 +4184,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" display="http://www.cnblogs.com/zhangjing230/archive/2012/05/17/2505711.html"/>
-    <hyperlink ref="B14" r:id="rId2" display="http://www.cnblogs.com/itech/archive/2009/02/19/1394268.html"/>
-    <hyperlink ref="B13" r:id="rId3" display="http://www.cnblogs.com/goodhelper/archive/2009/11/20/springnet_index.html"/>
-    <hyperlink ref="B12" r:id="rId4" display="http://www.cnblogs.com/fish-li/archive/2012/05/07/2486840.html"/>
-    <hyperlink ref="B11" r:id="rId5" display="http://blog.csdn.net/cadcisdhht/article/details/6187230"/>
-    <hyperlink ref="B10" r:id="rId6" display="http://blog.csdn.net/ituff/article/details/7614121"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://blog.csdn.net/peace_power/article/list/3"/>
-    <hyperlink ref="B8" r:id="rId8" display="http://www.cnblogs.com/anytao/archive/2007/09/14/must_net_catalog.html&#10;http://www.cnblogs.com/anytao/archive/2008/09/04/lovechina_bestclr_3rdfilter.html" tooltip="http://www.cnblogs.com/anytao/archive/2007/09/14/must_net_catalog.html_x005f_x000a_http://www.cnblogs.com/anytao/archive/2008/09/04/lovechina_bestclr_3rdfilter.html"/>
-    <hyperlink ref="B4" r:id="rId9" display="http://www.cnblogs.com/zhanglanyun/archive/2012/05/27/2519966.html"/>
-    <hyperlink ref="B2" r:id="rId10" display="http://blog.zhaojie.me/"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://blog.zhaojie.me/"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://www.cnblogs.com/zhanglanyun/archive/2012/05/27/2519966.html"/>
+    <hyperlink ref="B8" r:id="rId3" display="http://www.cnblogs.com/anytao/archive/2007/09/14/must_net_catalog.html&#10;http://www.cnblogs.com/anytao/archive/2008/09/04/lovechina_bestclr_3rdfilter.html" tooltip="http://www.cnblogs.com/anytao/archive/2007/09/14/must_net_catalog.html_x005f_x000a_http://www.cnblogs.com/anytao/archive/2008/09/04/lovechina_bestclr_3rdfilter.html"/>
+    <hyperlink ref="B9" r:id="rId4" display="http://blog.csdn.net/peace_power/article/list/3"/>
+    <hyperlink ref="B10" r:id="rId5" display="http://blog.csdn.net/ituff/article/details/7614121"/>
+    <hyperlink ref="B11" r:id="rId6" display="http://blog.csdn.net/cadcisdhht/article/details/6187230"/>
+    <hyperlink ref="B12" r:id="rId7" display="http://www.cnblogs.com/fish-li/archive/2012/05/07/2486840.html"/>
+    <hyperlink ref="B13" r:id="rId8" display="http://www.cnblogs.com/goodhelper/archive/2009/11/20/springnet_index.html"/>
+    <hyperlink ref="B14" r:id="rId9" display="http://www.cnblogs.com/itech/archive/2009/02/19/1394268.html"/>
+    <hyperlink ref="B15" r:id="rId10" display="http://www.cnblogs.com/zhangjing230/archive/2012/05/17/2505711.html"/>
   </hyperlinks>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3499,15 +4206,15 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="33.375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="54.75" style="58" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="54.75" style="60" customWidth="1"/>
     <col min="4" max="4" width="255.625" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
@@ -3516,122 +4223,122 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>18</v>
       </c>
+      <c r="C1" s="82" t="s">
+        <v>19</v>
+      </c>
       <c r="D1" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="148.5" spans="1:4">
       <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="58" t="s">
         <v>25</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:3">
       <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="60" t="s">
         <v>27</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="175.5" spans="1:4">
       <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="60" t="s">
         <v>29</v>
       </c>
+      <c r="C4" s="58" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" s="83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:3">
       <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="82" t="s">
+      <c r="B5" s="60" t="s">
         <v>32</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="82" t="s">
+      <c r="B6" s="60" t="s">
         <v>34</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:4">
       <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="58" t="s">
         <v>37</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="97.5" customHeight="1" spans="1:3">
       <c r="A8" s="39">
         <v>7</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>38</v>
+      <c r="B8" s="60" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="84" customHeight="1" spans="1:3">
       <c r="A9" s="39">
         <v>8</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="82" t="s">
+      <c r="B9" s="60" t="s">
         <v>41</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3652,1152 +4359,35 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="114.375" customWidth="1"/>
-    <col min="4" max="4" width="50.75" customWidth="1"/>
-    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" ht="29" customHeight="1" spans="1:1">
+      <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:1">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" ht="29" customHeight="1" spans="1:1">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" ht="117.75" customHeight="1" spans="1:4">
-      <c r="A2" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="63"/>
-    </row>
-    <row r="3" ht="37.5" customHeight="1" spans="1:3">
-      <c r="A3" s="62">
-        <v>2.11</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:3">
-      <c r="A4" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" customHeight="1" spans="1:3">
-      <c r="A5" s="61">
-        <v>2.15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" ht="41.25" customHeight="1" spans="1:3">
-      <c r="A6" s="61">
-        <v>2.17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" ht="90" customHeight="1" spans="1:3">
-      <c r="A7" s="61">
-        <v>2.18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" ht="295.5" customHeight="1" spans="1:5">
-      <c r="A8" s="66">
-        <v>2.19</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" ht="40.5" spans="1:3">
-      <c r="A9" s="61">
-        <v>2.2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" ht="51.75" customHeight="1" spans="1:3">
-      <c r="A10" s="61">
-        <v>2.21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" ht="53.25" customHeight="1" spans="1:3">
-      <c r="A11" s="61">
-        <v>2.24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" ht="60.75" customHeight="1" spans="1:5">
-      <c r="A12" s="70">
-        <v>2.25</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:3">
-      <c r="A13" s="74">
-        <v>2.26</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" ht="44.25" customHeight="1" spans="1:3">
-      <c r="A14" s="61">
-        <v>2.27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:3">
-      <c r="A15" s="61">
-        <v>2.28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" ht="74.25" customHeight="1" spans="1:3">
-      <c r="A16" s="61">
-        <v>3.3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:3">
-      <c r="A17" s="61">
-        <v>3.4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" ht="27" spans="1:3">
-      <c r="A18" s="61">
-        <v>3.5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" ht="54" spans="1:3">
-      <c r="A19" s="61">
-        <v>3.6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" ht="102.75" customHeight="1" spans="1:3">
-      <c r="A20" s="61">
-        <v>3.7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" ht="66" customHeight="1" spans="1:3">
-      <c r="A21" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:3">
-      <c r="A22" s="61">
-        <v>3.11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" spans="1:3">
-      <c r="A23" s="61">
-        <v>3.12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" s="60" customFormat="1" ht="242.25" customHeight="1" spans="1:3">
-      <c r="A24" s="78">
-        <v>3.13</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:3">
-      <c r="A25" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" ht="45" customHeight="1" spans="1:3">
-      <c r="A26" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" ht="39.75" customHeight="1" spans="1:3">
-      <c r="A27" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A28" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:3">
-      <c r="A29" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" ht="67.5" spans="1:3">
-      <c r="A30" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" ht="54" spans="1:4">
-      <c r="A31" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" ht="132.75" customHeight="1" spans="1:3">
-      <c r="A34" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" ht="54" spans="1:3">
-      <c r="A35" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:3">
-      <c r="A36" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" ht="40.5" spans="1:3">
-      <c r="A37" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" ht="40.5" spans="1:3">
-      <c r="A38" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" ht="27" spans="1:3">
-      <c r="A41" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:3">
-      <c r="A42" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" ht="52.5" customHeight="1" spans="1:3">
-      <c r="A44" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" ht="27" spans="1:3">
-      <c r="A45" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" ht="94.5" spans="1:3">
-      <c r="A46" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" ht="67.5" customHeight="1" spans="1:3">
-      <c r="A47" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" ht="27" spans="1:3">
-      <c r="A48" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" ht="27" spans="1:3">
-      <c r="A49" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="27" spans="1:3">
-      <c r="A50" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" ht="81" spans="1:3">
-      <c r="A51" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" ht="54" spans="1:3">
-      <c r="A52" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" ht="108" spans="1:3">
-      <c r="A53" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" ht="27" spans="1:3">
-      <c r="A54" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" ht="67.5" spans="1:3">
-      <c r="A55" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" ht="67.5" spans="1:3">
-      <c r="A56" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" ht="104.25" customHeight="1" spans="1:3">
-      <c r="A57" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" ht="40.5" spans="1:3">
-      <c r="A58" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" ht="102" customHeight="1" spans="1:3">
-      <c r="A59" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" ht="158.25" customHeight="1" spans="1:3">
-      <c r="A60" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="65" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" ht="40.5" spans="1:3">
-      <c r="A61" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" ht="67.5" spans="1:3">
-      <c r="A62" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" ht="67.5" spans="1:3">
-      <c r="A63" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" ht="54" spans="1:3">
-      <c r="A64" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="65" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" ht="81" spans="1:3">
-      <c r="A65" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" ht="135" spans="1:3">
-      <c r="A66" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="65" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" ht="40.5" spans="1:3">
-      <c r="A67" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" ht="81" spans="1:3">
-      <c r="A68" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="B68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" ht="40.5" spans="1:3">
-      <c r="A69" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="B69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" ht="40.5" spans="1:3">
-      <c r="A70" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="B70" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="65" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" ht="256.5" spans="1:3">
-      <c r="A71" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" ht="30.75" customHeight="1" spans="1:3">
-      <c r="A72" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" ht="53.25" customHeight="1" spans="1:3">
-      <c r="A73" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="B73" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" s="65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" ht="54" spans="1:3">
-      <c r="A74" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" ht="27" spans="1:3">
-      <c r="A75" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="B75" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" ht="108" spans="1:3">
-      <c r="A76" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" ht="67.5" spans="1:3">
-      <c r="A77" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="B77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="65" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" ht="54" spans="1:3">
-      <c r="A78" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" ht="40.5" spans="1:3">
-      <c r="A79" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="B79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" s="65" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" ht="67.5" spans="1:4">
-      <c r="A80" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="D80" s="65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" ht="40.5" spans="1:3">
-      <c r="A81" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" ht="27" spans="1:3">
-      <c r="A82" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="B82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="65" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="B83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" ht="54" spans="1:4">
-      <c r="A84" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="B84" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D84" s="65" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" ht="37.5" customHeight="1" spans="1:4">
-      <c r="A85" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="B85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" ht="42" customHeight="1" spans="1:3">
-      <c r="A86" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="B86" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="87" ht="39.75" customHeight="1" spans="1:2">
-      <c r="A87" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="B87" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" ht="36.75" customHeight="1" spans="1:2">
-      <c r="A88" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="B89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C89" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="B90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" ht="27" spans="1:4">
-      <c r="A91" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="B91" t="s">
-        <v>222</v>
-      </c>
-      <c r="C91" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="D91" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" ht="40.5" spans="1:4">
-      <c r="A92" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="B92" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="D92" s="65" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="93" ht="40.5" spans="1:3">
-      <c r="A93" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="B93" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" s="65" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" ht="67.5" spans="1:3">
-      <c r="A94" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="B94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="65" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="95" ht="27" spans="1:3">
-      <c r="A95" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="B95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" s="65" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="96" ht="40.5" spans="1:3">
-      <c r="A96" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="B96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96" s="65" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="B97" t="s">
-        <v>58</v>
-      </c>
-      <c r="C97" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="98" ht="80.25" customHeight="1" spans="1:3">
-      <c r="A98" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="B98" t="s">
-        <v>239</v>
-      </c>
-      <c r="C98" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="B99" t="s">
-        <v>242</v>
-      </c>
-      <c r="C99" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="B100" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="61"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4806,10 +4396,1164 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="114.375" customWidth="1"/>
+    <col min="4" max="4" width="50.75" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="117.75" customHeight="1" spans="1:4">
+      <c r="A2" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="64"/>
+    </row>
+    <row r="3" ht="37.5" customHeight="1" spans="1:3">
+      <c r="A3" s="63">
+        <v>2.11</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:3">
+      <c r="A4" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" customHeight="1" spans="1:3">
+      <c r="A5" s="62">
+        <v>2.15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" ht="41.25" customHeight="1" spans="1:3">
+      <c r="A6" s="62">
+        <v>2.17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" ht="90" customHeight="1" spans="1:3">
+      <c r="A7" s="62">
+        <v>2.18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" ht="295.5" customHeight="1" spans="1:5">
+      <c r="A8" s="67">
+        <v>2.19</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:3">
+      <c r="A9" s="62">
+        <v>2.2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" ht="51.75" customHeight="1" spans="1:3">
+      <c r="A10" s="62">
+        <v>2.21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" ht="53.25" customHeight="1" spans="1:3">
+      <c r="A11" s="62">
+        <v>2.24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" ht="60.75" customHeight="1" spans="1:5">
+      <c r="A12" s="71">
+        <v>2.25</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:3">
+      <c r="A13" s="75">
+        <v>2.26</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" ht="44.25" customHeight="1" spans="1:3">
+      <c r="A14" s="62">
+        <v>2.27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:3">
+      <c r="A15" s="62">
+        <v>2.28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" ht="74.25" customHeight="1" spans="1:3">
+      <c r="A16" s="62">
+        <v>3.3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:3">
+      <c r="A17" s="62">
+        <v>3.4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:3">
+      <c r="A18" s="62">
+        <v>3.5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" ht="54" spans="1:3">
+      <c r="A19" s="62">
+        <v>3.6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" ht="102.75" customHeight="1" spans="1:3">
+      <c r="A20" s="62">
+        <v>3.7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" ht="66" customHeight="1" spans="1:3">
+      <c r="A21" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:3">
+      <c r="A22" s="62">
+        <v>3.11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="1:3">
+      <c r="A23" s="62">
+        <v>3.12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" s="61" customFormat="1" ht="242.25" customHeight="1" spans="1:3">
+      <c r="A24" s="79">
+        <v>3.13</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:3">
+      <c r="A25" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" ht="45" customHeight="1" spans="1:3">
+      <c r="A26" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" ht="39.75" customHeight="1" spans="1:3">
+      <c r="A27" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" customHeight="1" spans="1:3">
+      <c r="A28" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:3">
+      <c r="A29" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" ht="67.5" spans="1:3">
+      <c r="A30" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" ht="54" spans="1:4">
+      <c r="A31" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" ht="132.75" customHeight="1" spans="1:3">
+      <c r="A34" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="1:3">
+      <c r="A35" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:3">
+      <c r="A36" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" ht="40.5" spans="1:3">
+      <c r="A37" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="1:3">
+      <c r="A38" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:3">
+      <c r="A41" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:3">
+      <c r="A42" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" ht="52.5" customHeight="1" spans="1:3">
+      <c r="A44" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="1:3">
+      <c r="A45" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" ht="94.5" spans="1:3">
+      <c r="A46" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" ht="67.5" customHeight="1" spans="1:3">
+      <c r="A47" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:3">
+      <c r="A48" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" ht="27" spans="1:3">
+      <c r="A49" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="1:3">
+      <c r="A50" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" ht="81" spans="1:3">
+      <c r="A51" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" ht="54" spans="1:3">
+      <c r="A52" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" ht="108" spans="1:3">
+      <c r="A53" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" ht="27" spans="1:3">
+      <c r="A54" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" ht="67.5" spans="1:3">
+      <c r="A55" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" ht="67.5" spans="1:3">
+      <c r="A56" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" ht="104.25" customHeight="1" spans="1:3">
+      <c r="A57" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:3">
+      <c r="A58" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" ht="102" customHeight="1" spans="1:3">
+      <c r="A59" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" ht="158.25" customHeight="1" spans="1:3">
+      <c r="A60" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" ht="40.5" spans="1:3">
+      <c r="A61" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" ht="67.5" spans="1:3">
+      <c r="A62" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" ht="67.5" spans="1:3">
+      <c r="A63" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" ht="54" spans="1:3">
+      <c r="A64" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" ht="81" spans="1:3">
+      <c r="A65" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" ht="135" spans="1:3">
+      <c r="A66" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" ht="40.5" spans="1:3">
+      <c r="A67" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" ht="81" spans="1:3">
+      <c r="A68" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" ht="40.5" spans="1:3">
+      <c r="A69" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" ht="40.5" spans="1:3">
+      <c r="A70" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" ht="256.5" spans="1:3">
+      <c r="A71" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" ht="30.75" customHeight="1" spans="1:3">
+      <c r="A72" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" ht="53.25" customHeight="1" spans="1:3">
+      <c r="A73" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" ht="54" spans="1:3">
+      <c r="A74" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" ht="27" spans="1:3">
+      <c r="A75" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" ht="108" spans="1:3">
+      <c r="A76" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" ht="67.5" spans="1:3">
+      <c r="A77" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" ht="54" spans="1:3">
+      <c r="A78" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" ht="40.5" spans="1:3">
+      <c r="A79" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" ht="67.5" spans="1:4">
+      <c r="A80" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" ht="40.5" spans="1:3">
+      <c r="A81" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="1:3">
+      <c r="A82" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" ht="54" spans="1:4">
+      <c r="A84" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" ht="37.5" customHeight="1" spans="1:4">
+      <c r="A85" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" ht="42" customHeight="1" spans="1:3">
+      <c r="A86" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" ht="39.75" customHeight="1" spans="1:2">
+      <c r="A87" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" ht="36.75" customHeight="1" spans="1:2">
+      <c r="A88" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" ht="27" spans="1:4">
+      <c r="A91" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="B91" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" ht="40.5" spans="1:4">
+      <c r="A92" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="D92" s="66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" ht="40.5" spans="1:3">
+      <c r="A93" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="66" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" ht="67.5" spans="1:3">
+      <c r="A94" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="1:3">
+      <c r="A95" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" ht="40.5" spans="1:3">
+      <c r="A96" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" ht="80.25" customHeight="1" spans="1:3">
+      <c r="A98" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="1"/>
@@ -4820,361 +5564,107 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="57" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="58"/>
+        <v>260</v>
+      </c>
+      <c r="B6" s="60"/>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="58"/>
+        <v>261</v>
+      </c>
+      <c r="B7" s="60"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:B7"/>
   </mergeCells>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="51.125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A1" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" ht="83.25" customHeight="1" spans="1:3">
-      <c r="A2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" ht="57.95" customHeight="1" spans="1:3">
-      <c r="A3" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" ht="30.95" customHeight="1" spans="1:3">
-      <c r="A4" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:3">
-      <c r="A5" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="49"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="49"/>
-    </row>
-    <row r="7" ht="23.25" customHeight="1" spans="1:3">
-      <c r="A7" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="49"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="1:3">
-      <c r="A8" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="49"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:3">
-      <c r="A9" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="49"/>
-    </row>
-    <row r="10" ht="40.5" customHeight="1" spans="1:3">
-      <c r="A10" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" customHeight="1" spans="1:3">
-      <c r="A11" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" ht="48.75" customHeight="1" spans="1:3">
-      <c r="A12" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-    </row>
-    <row r="13" ht="121.5" customHeight="1" spans="1:3">
-      <c r="A13" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="55"/>
-    </row>
-    <row r="14" s="16" customFormat="1" spans="1:3">
-      <c r="A14" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" s="16" customFormat="1" spans="1:3">
-      <c r="A15" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" s="16" customFormat="1" spans="1:3">
-      <c r="A16" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" s="16" customFormat="1" spans="1:3">
-      <c r="A17" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" ht="27" customHeight="1" spans="1:3">
-      <c r="A18" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="C18" s="49"/>
-    </row>
-    <row r="19" ht="27" customHeight="1" spans="1:3">
-      <c r="A19" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="49"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="49"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="49"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="49"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="49"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="49"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="49"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="49"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="49"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="49"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="49"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="49"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" display="http://www.cnblogs.com/chiname/articles/409693.html"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5198,359 +5688,359 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A1" s="42" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" ht="41.25" customHeight="1" spans="1:3">
-      <c r="A2" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>300</v>
+      <c r="A2" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="3" ht="46.5" customHeight="1" spans="1:3">
-      <c r="A3" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44" t="s">
-        <v>302</v>
+      <c r="A3" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="4" ht="93.75" customHeight="1" spans="1:3">
-      <c r="A4" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="44"/>
+      <c r="A4" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="46" t="s">
-        <v>305</v>
+      <c r="A5" s="52" t="s">
+        <v>281</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="46" t="s">
-        <v>306</v>
+      <c r="A6" s="52" t="s">
+        <v>282</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="46" t="s">
-        <v>307</v>
+      <c r="A7" s="52" t="s">
+        <v>283</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="46" t="s">
-        <v>308</v>
+      <c r="A8" s="52" t="s">
+        <v>284</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="46" t="s">
-        <v>309</v>
+      <c r="A9" s="52" t="s">
+        <v>285</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="46" t="s">
-        <v>310</v>
+      <c r="A10" s="52" t="s">
+        <v>286</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="46" t="s">
-        <v>311</v>
+      <c r="A11" s="52" t="s">
+        <v>287</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" ht="86.1" customHeight="1" spans="1:3">
       <c r="A13" s="10" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:3">
-      <c r="A14" s="46" t="s">
-        <v>314</v>
+      <c r="A14" s="52" t="s">
+        <v>290</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" ht="48" customHeight="1" spans="1:3">
       <c r="A15" s="10" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:2">
-      <c r="A16" s="47" t="s">
-        <v>319</v>
+      <c r="A16" s="56" t="s">
+        <v>295</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="47"/>
+      <c r="A17" s="56"/>
     </row>
     <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="56"/>
     </row>
     <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="56"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="47"/>
+      <c r="A20" s="56"/>
     </row>
     <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="56"/>
     </row>
     <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="47"/>
+      <c r="A22" s="56"/>
     </row>
     <row r="23" customHeight="1" spans="1:1">
-      <c r="A23" s="47"/>
+      <c r="A23" s="56"/>
     </row>
     <row r="24" customHeight="1" spans="1:1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="56"/>
     </row>
     <row r="25" customHeight="1" spans="1:1">
-      <c r="A25" s="47"/>
+      <c r="A25" s="56"/>
     </row>
     <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="47"/>
+      <c r="A26" s="56"/>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="47"/>
+      <c r="A27" s="56"/>
     </row>
     <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="56"/>
     </row>
     <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="56"/>
     </row>
     <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="56"/>
     </row>
     <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="56"/>
     </row>
     <row r="32" customHeight="1" spans="1:1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="56"/>
     </row>
     <row r="33" customHeight="1" spans="1:1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="56"/>
     </row>
     <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="56"/>
     </row>
     <row r="35" customHeight="1" spans="1:1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="56"/>
     </row>
     <row r="36" customHeight="1" spans="1:1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="56"/>
     </row>
     <row r="37" customHeight="1" spans="1:1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="56"/>
     </row>
     <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="47"/>
+      <c r="A38" s="56"/>
     </row>
     <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" s="47"/>
+      <c r="A39" s="56"/>
     </row>
     <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="47"/>
+      <c r="A40" s="56"/>
     </row>
     <row r="41" customHeight="1" spans="1:1">
-      <c r="A41" s="47"/>
+      <c r="A41" s="56"/>
     </row>
     <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="47"/>
+      <c r="A42" s="56"/>
     </row>
     <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="47"/>
+      <c r="A43" s="56"/>
     </row>
     <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="47"/>
+      <c r="A44" s="56"/>
     </row>
     <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="47"/>
+      <c r="A45" s="56"/>
     </row>
     <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="47"/>
+      <c r="A46" s="56"/>
     </row>
     <row r="47" customHeight="1" spans="1:1">
-      <c r="A47" s="47"/>
+      <c r="A47" s="56"/>
     </row>
     <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="47"/>
+      <c r="A48" s="56"/>
     </row>
     <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="47"/>
+      <c r="A49" s="56"/>
     </row>
     <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="47"/>
+      <c r="A50" s="56"/>
     </row>
     <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="47"/>
+      <c r="A51" s="56"/>
     </row>
     <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="47"/>
+      <c r="A52" s="56"/>
     </row>
     <row r="53" customHeight="1" spans="1:1">
-      <c r="A53" s="47"/>
+      <c r="A53" s="56"/>
     </row>
     <row r="54" customHeight="1" spans="1:1">
-      <c r="A54" s="47"/>
+      <c r="A54" s="56"/>
     </row>
     <row r="55" customHeight="1" spans="1:1">
-      <c r="A55" s="47"/>
+      <c r="A55" s="56"/>
     </row>
     <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="47"/>
+      <c r="A56" s="56"/>
     </row>
     <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="47"/>
+      <c r="A57" s="56"/>
     </row>
     <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="47"/>
+      <c r="A58" s="56"/>
     </row>
     <row r="59" customHeight="1" spans="1:1">
-      <c r="A59" s="47"/>
+      <c r="A59" s="56"/>
     </row>
     <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="47"/>
+      <c r="A60" s="56"/>
     </row>
     <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="47"/>
+      <c r="A61" s="56"/>
     </row>
     <row r="62" customHeight="1" spans="1:1">
-      <c r="A62" s="47"/>
+      <c r="A62" s="56"/>
     </row>
     <row r="63" customHeight="1" spans="1:1">
-      <c r="A63" s="47"/>
+      <c r="A63" s="56"/>
     </row>
     <row r="64" customHeight="1" spans="1:1">
-      <c r="A64" s="47"/>
+      <c r="A64" s="56"/>
     </row>
     <row r="65" customHeight="1" spans="1:1">
-      <c r="A65" s="47"/>
+      <c r="A65" s="56"/>
     </row>
     <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="47"/>
+      <c r="A66" s="56"/>
     </row>
     <row r="67" customHeight="1" spans="1:1">
-      <c r="A67" s="47"/>
+      <c r="A67" s="56"/>
     </row>
     <row r="68" customHeight="1" spans="1:1">
-      <c r="A68" s="47"/>
+      <c r="A68" s="56"/>
     </row>
     <row r="69" customHeight="1" spans="1:1">
-      <c r="A69" s="47"/>
+      <c r="A69" s="56"/>
     </row>
     <row r="70" customHeight="1" spans="1:1">
-      <c r="A70" s="47"/>
+      <c r="A70" s="56"/>
     </row>
     <row r="71" customHeight="1" spans="1:1">
-      <c r="A71" s="47"/>
+      <c r="A71" s="56"/>
     </row>
     <row r="72" customHeight="1" spans="1:1">
-      <c r="A72" s="47"/>
+      <c r="A72" s="56"/>
     </row>
     <row r="73" customHeight="1" spans="1:1">
-      <c r="A73" s="47"/>
+      <c r="A73" s="56"/>
     </row>
     <row r="74" customHeight="1" spans="1:1">
-      <c r="A74" s="47"/>
+      <c r="A74" s="56"/>
     </row>
     <row r="75" customHeight="1" spans="1:1">
-      <c r="A75" s="47"/>
+      <c r="A75" s="56"/>
     </row>
     <row r="76" customHeight="1" spans="1:1">
-      <c r="A76" s="47"/>
+      <c r="A76" s="56"/>
     </row>
     <row r="77" customHeight="1" spans="1:1">
-      <c r="A77" s="47"/>
+      <c r="A77" s="56"/>
     </row>
     <row r="78" customHeight="1" spans="1:1">
-      <c r="A78" s="47"/>
+      <c r="A78" s="56"/>
     </row>
     <row r="79" customHeight="1" spans="1:1">
-      <c r="A79" s="47"/>
+      <c r="A79" s="56"/>
     </row>
     <row r="80" customHeight="1" spans="1:1">
-      <c r="A80" s="47"/>
+      <c r="A80" s="56"/>
     </row>
     <row r="81" customHeight="1" spans="1:1">
-      <c r="A81" s="47"/>
+      <c r="A81" s="56"/>
     </row>
     <row r="82" customHeight="1" spans="1:1">
-      <c r="A82" s="47"/>
+      <c r="A82" s="56"/>
     </row>
     <row r="83" customHeight="1" spans="1:1">
-      <c r="A83" s="47"/>
+      <c r="A83" s="56"/>
     </row>
     <row r="84" customHeight="1" spans="1:1">
-      <c r="A84" s="47"/>
+      <c r="A84" s="56"/>
     </row>
     <row r="85" customHeight="1" spans="1:1">
-      <c r="A85" s="47"/>
+      <c r="A85" s="56"/>
     </row>
     <row r="86" customHeight="1" spans="1:1">
-      <c r="A86" s="47"/>
+      <c r="A86" s="56"/>
     </row>
     <row r="87" customHeight="1" spans="1:1">
-      <c r="A87" s="47"/>
+      <c r="A87" s="56"/>
     </row>
     <row r="88" customHeight="1" spans="1:1">
-      <c r="A88" s="47"/>
+      <c r="A88" s="56"/>
     </row>
     <row r="89" customHeight="1" spans="1:1">
-      <c r="A89" s="47"/>
+      <c r="A89" s="56"/>
     </row>
     <row r="90" customHeight="1" spans="1:1">
-      <c r="A90" s="47"/>
+      <c r="A90" s="56"/>
     </row>
   </sheetData>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5559,10 +6049,264 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="51.125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A1" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" ht="83.25" customHeight="1" spans="1:3">
+      <c r="A2" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" ht="57.95" customHeight="1" spans="1:3">
+      <c r="A3" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" ht="30.95" customHeight="1" spans="1:3">
+      <c r="A4" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:3">
+      <c r="A5" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="45"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="45"/>
+    </row>
+    <row r="7" ht="23.25" customHeight="1" spans="1:3">
+      <c r="A7" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="45"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:3">
+      <c r="A8" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="45"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:3">
+      <c r="A9" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="45"/>
+    </row>
+    <row r="10" ht="40.5" customHeight="1" spans="1:3">
+      <c r="A10" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" customHeight="1" spans="1:3">
+      <c r="A11" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" ht="48.75" customHeight="1" spans="1:3">
+      <c r="A12" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+    </row>
+    <row r="13" ht="121.5" customHeight="1" spans="1:3">
+      <c r="A13" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="51"/>
+    </row>
+    <row r="14" s="16" customFormat="1" spans="1:3">
+      <c r="A14" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" s="16" customFormat="1" spans="1:3">
+      <c r="A15" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" s="16" customFormat="1" spans="1:3">
+      <c r="A16" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" s="16" customFormat="1" spans="1:3">
+      <c r="A17" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:3">
+      <c r="A18" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="45"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:3">
+      <c r="A19" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="45"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="45"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="45"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="45"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="45"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="45"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="45"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="45"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="45"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="45"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="45"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="45"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="45"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="45"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" display="http://www.cnblogs.com/chiname/articles/409693.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5579,28 +6323,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:8">
@@ -5608,20 +6352,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C2" s="25">
         <v>41310</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="29" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H2" s="28"/>
     </row>
@@ -5630,23 +6374,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>327</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>324</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="40" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5758,13 +6502,13 @@
       <formula>"Doing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:IV8"/>
@@ -5787,28 +6531,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="291.75" customHeight="1" spans="1:8">
@@ -5816,23 +6560,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C2" s="25">
         <v>41310</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" ht="83.25" customHeight="1" spans="1:8">
@@ -5840,16 +6584,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C3" s="25">
         <v>41577</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
@@ -5860,16 +6604,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5880,16 +6624,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5900,16 +6644,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>343</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>340</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -5920,20 +6664,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H7" s="30"/>
     </row>
@@ -5942,640 +6686,640 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="35">
         <v>6</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="35">
         <v>6</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="V8" s="28"/>
       <c r="W8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="X8" s="30"/>
       <c r="Y8" s="35">
         <v>6</v>
       </c>
       <c r="Z8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AA8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AB8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AC8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AD8" s="28"/>
       <c r="AE8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AF8" s="30"/>
       <c r="AG8" s="35">
         <v>6</v>
       </c>
       <c r="AH8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AJ8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AK8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AL8" s="28"/>
       <c r="AM8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AN8" s="30"/>
       <c r="AO8" s="35">
         <v>6</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AQ8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AR8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AS8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AT8" s="28"/>
       <c r="AU8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AV8" s="30"/>
       <c r="AW8" s="35">
         <v>6</v>
       </c>
       <c r="AX8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AY8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AZ8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="BA8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="BB8" s="28"/>
       <c r="BC8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="BD8" s="30"/>
       <c r="BE8" s="35">
         <v>6</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="BG8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="BH8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="BI8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="BJ8" s="28"/>
       <c r="BK8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="BL8" s="30"/>
       <c r="BM8" s="35">
         <v>6</v>
       </c>
       <c r="BN8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="BO8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="BP8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="BQ8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="BR8" s="28"/>
       <c r="BS8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="BT8" s="30"/>
       <c r="BU8" s="35">
         <v>6</v>
       </c>
       <c r="BV8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="BW8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="BX8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="BY8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="BZ8" s="28"/>
       <c r="CA8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="CB8" s="30"/>
       <c r="CC8" s="35">
         <v>6</v>
       </c>
       <c r="CD8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="CE8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="CF8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="CG8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="CH8" s="28"/>
       <c r="CI8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="CJ8" s="30"/>
       <c r="CK8" s="35">
         <v>6</v>
       </c>
       <c r="CL8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="CM8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="CN8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="CO8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="CP8" s="28"/>
       <c r="CQ8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="CR8" s="30"/>
       <c r="CS8" s="35">
         <v>6</v>
       </c>
       <c r="CT8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="CU8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="CV8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="CW8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="CX8" s="28"/>
       <c r="CY8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="CZ8" s="30"/>
       <c r="DA8" s="35">
         <v>6</v>
       </c>
       <c r="DB8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="DC8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="DD8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="DE8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="DF8" s="28"/>
       <c r="DG8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="DH8" s="30"/>
       <c r="DI8" s="35">
         <v>6</v>
       </c>
       <c r="DJ8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="DK8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="DL8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="DM8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="DN8" s="28"/>
       <c r="DO8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="DP8" s="30"/>
       <c r="DQ8" s="35">
         <v>6</v>
       </c>
       <c r="DR8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="DS8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="DT8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="DU8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="DV8" s="28"/>
       <c r="DW8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="DX8" s="30"/>
       <c r="DY8" s="35">
         <v>6</v>
       </c>
       <c r="DZ8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="EA8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="EB8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="EC8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="ED8" s="28"/>
       <c r="EE8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EF8" s="30"/>
       <c r="EG8" s="35">
         <v>6</v>
       </c>
       <c r="EH8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="EI8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="EJ8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="EK8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="EL8" s="28"/>
       <c r="EM8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EN8" s="30"/>
       <c r="EO8" s="35">
         <v>6</v>
       </c>
       <c r="EP8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="EQ8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="ER8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="ES8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="ET8" s="28"/>
       <c r="EU8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EV8" s="30"/>
       <c r="EW8" s="35">
         <v>6</v>
       </c>
       <c r="EX8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="EY8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="EZ8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FA8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FB8" s="28"/>
       <c r="FC8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="FD8" s="30"/>
       <c r="FE8" s="35">
         <v>6</v>
       </c>
       <c r="FF8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FG8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FH8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FI8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FJ8" s="28"/>
       <c r="FK8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="FL8" s="30"/>
       <c r="FM8" s="35">
         <v>6</v>
       </c>
       <c r="FN8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FO8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FP8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FQ8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FR8" s="28"/>
       <c r="FS8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="FT8" s="30"/>
       <c r="FU8" s="35">
         <v>6</v>
       </c>
       <c r="FV8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FW8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FX8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FY8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FZ8" s="28"/>
       <c r="GA8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="GB8" s="30"/>
       <c r="GC8" s="35">
         <v>6</v>
       </c>
       <c r="GD8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="GE8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="GF8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GG8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="GH8" s="28"/>
       <c r="GI8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="GJ8" s="30"/>
       <c r="GK8" s="35">
         <v>6</v>
       </c>
       <c r="GL8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="GM8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="GN8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GO8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="GP8" s="28"/>
       <c r="GQ8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="GR8" s="30"/>
       <c r="GS8" s="35">
         <v>6</v>
       </c>
       <c r="GT8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="GU8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="GV8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GW8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="GX8" s="28"/>
       <c r="GY8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="GZ8" s="30"/>
       <c r="HA8" s="35">
         <v>6</v>
       </c>
       <c r="HB8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="HC8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="HD8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="HE8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="HF8" s="28"/>
       <c r="HG8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="HH8" s="30"/>
       <c r="HI8" s="35">
         <v>6</v>
       </c>
       <c r="HJ8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="HK8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="HL8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="HM8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="HN8" s="28"/>
       <c r="HO8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="HP8" s="30"/>
       <c r="HQ8" s="35">
         <v>6</v>
       </c>
       <c r="HR8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="HS8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="HT8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="HU8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="HV8" s="28"/>
       <c r="HW8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="HX8" s="30"/>
       <c r="HY8" s="35">
         <v>6</v>
       </c>
       <c r="HZ8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="IA8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="IB8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="IC8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="ID8" s="28"/>
       <c r="IE8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="IF8" s="30"/>
       <c r="IG8" s="35">
         <v>6</v>
       </c>
       <c r="IH8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="II8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="IJ8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="IK8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="IL8" s="28"/>
       <c r="IM8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="IN8" s="30"/>
       <c r="IO8" s="35">
         <v>6</v>
       </c>
       <c r="IP8" s="28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="IQ8" s="32" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="IR8" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="IS8" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="IT8" s="28"/>
       <c r="IU8" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="IV8" s="30"/>
     </row>
@@ -6588,709 +7332,8 @@
       <formula>"Doing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="40.375" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="69.375" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="4.25" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="65.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="81" customHeight="1" spans="1:8">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" ht="36" customHeight="1" spans="1:8">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" ht="34.5" customHeight="1" spans="1:8">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A5" s="8">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" ht="58.5" customHeight="1" spans="1:8">
-      <c r="A6" s="8">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" ht="45.75" customHeight="1" spans="1:8">
-      <c r="A7" s="8">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" ht="51.95" customHeight="1" spans="1:8">
-      <c r="A8" s="8">
-        <v>10</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" ht="48" customHeight="1" spans="1:8">
-      <c r="A9" s="8">
-        <v>11</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" ht="148.5" customHeight="1" spans="1:8">
-      <c r="A10" s="8">
-        <v>12</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="1:8">
-      <c r="A11" s="18">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" ht="48" customHeight="1" spans="1:8">
-      <c r="A12" s="8">
-        <v>16</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" ht="81.95" customHeight="1" spans="1:8">
-      <c r="A13" s="8">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" ht="42.95" customHeight="1" spans="1:8">
-      <c r="A14" s="8">
-        <v>18</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" ht="48" customHeight="1" spans="1:8">
-      <c r="A15" s="8">
-        <v>19</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" ht="36" customHeight="1" spans="1:8">
-      <c r="A16" s="8">
-        <v>20</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" ht="36" customHeight="1" spans="1:8">
-      <c r="A17" s="8">
-        <v>22</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" ht="36" customHeight="1" spans="1:8">
-      <c r="A18" s="8">
-        <v>23</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" ht="26.1" customHeight="1" spans="1:8">
-      <c r="A19" s="8">
-        <v>24</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" ht="48" customHeight="1" spans="1:8">
-      <c r="A20" s="8">
-        <v>25</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" ht="36" customHeight="1" spans="1:8">
-      <c r="A21" s="8">
-        <v>26</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" ht="72" customHeight="1" spans="1:8">
-      <c r="A22" s="8">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" ht="39" customHeight="1" spans="1:8">
-      <c r="A23" s="8">
-        <v>28</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" ht="54" customHeight="1" spans="1:8">
-      <c r="A24" s="8">
-        <v>29</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="8">
-        <v>30</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="8">
-        <v>31</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" ht="69.95" customHeight="1" spans="1:8">
-      <c r="A27" s="8">
-        <v>32</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="8">
-        <v>33</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="18">
-        <v>34</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="18">
-        <v>35</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="18"/>
-      <c r="B31" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="18"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:8">
-      <c r="A33" s="18"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="18"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:8">
-      <c r="A35" s="18"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E1:E6 E8:E16 A11:B11 D17:D26 D28 C30 C32 C34">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Doing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" display="http://www.cnblogs.com/aigongsi/archive/2012/10/09/2716086.html"/>
-    <hyperlink ref="D27" r:id="rId2" display="出处:http://www.cnblogs.com/FreeDong/archive/2012/09/28/2706083.html&#10;C# 类型构造 静态构造函数执行顺序&#10;ClassB obj=null;这样为什么不回执行类型构造函数?&#10;还是基础知识没有掌握牢固:因为这个构造函数是属于类的，而不属于任何一个实例，所以这个构造函数只会被执行一次，而且是在创建此类的第一个实例或引用任何静态成员之前，由.NET自动调用。"/>
-    <hyperlink ref="D24" r:id="rId3" display="http://www.cnblogs.com/lr-ting/archive/2012/09/23/2699278.html"/>
-  </hyperlinks>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/work.xlsx
+++ b/work.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475">
   <si>
     <t>事项</t>
   </si>
@@ -199,7 +199,18 @@
     <t xml:space="preserve">TCP 协议 Socket </t>
   </si>
   <si>
+    <t xml:space="preserve">1、网络协议分层
+2、
+</t>
+  </si>
+  <si>
     <t>STL 学习/数据结构</t>
+  </si>
+  <si>
+    <t>服务器编程</t>
+  </si>
+  <si>
+    <t>参考：http://www.cnblogs.com/haore147/p/3904494.html</t>
   </si>
   <si>
     <t>时间</t>
@@ -3333,7 +3344,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>19</v>
@@ -3356,16 +3367,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -3376,16 +3387,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -3396,16 +3407,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -3416,16 +3427,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3436,14 +3447,14 @@
         <v>8</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3454,21 +3465,21 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" ht="51.95" customHeight="1" spans="1:8">
@@ -3476,16 +3487,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -3496,16 +3507,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -3516,21 +3527,21 @@
         <v>12</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:8">
@@ -3538,16 +3549,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -3558,16 +3569,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -3578,21 +3589,21 @@
         <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" ht="42.95" customHeight="1" spans="1:8">
@@ -3600,16 +3611,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -3620,16 +3631,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -3640,16 +3651,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -3660,16 +3671,16 @@
         <v>22</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -3680,16 +3691,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -3700,16 +3711,16 @@
         <v>24</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -3720,16 +3731,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -3740,16 +3751,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -3760,16 +3771,16 @@
         <v>27</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -3780,16 +3791,16 @@
         <v>28</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -3800,16 +3811,16 @@
         <v>29</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -3820,14 +3831,14 @@
         <v>30</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -3838,16 +3849,16 @@
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -3858,16 +3869,16 @@
         <v>32</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -3878,16 +3889,16 @@
         <v>33</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -3898,16 +3909,16 @@
         <v>34</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -3918,14 +3929,14 @@
         <v>35</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="21" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -3934,7 +3945,7 @@
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="18"/>
       <c r="B31" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -3993,9 +4004,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1" display="http://www.cnblogs.com/lr-ting/archive/2012/09/23/2699278.html"/>
+    <hyperlink ref="D30" r:id="rId1" display="http://www.cnblogs.com/aigongsi/archive/2012/10/09/2716086.html"/>
     <hyperlink ref="D27" r:id="rId2" display="出处:http://www.cnblogs.com/FreeDong/archive/2012/09/28/2706083.html&#10;C# 类型构造 静态构造函数执行顺序&#10;ClassB obj=null;这样为什么不回执行类型构造函数?&#10;还是基础知识没有掌握牢固:因为这个构造函数是属于类的，而不属于任何一个实例，所以这个构造函数只会被执行一次，而且是在创建此类的第一个实例或引用任何静态成员之前，由.NET自动调用。"/>
-    <hyperlink ref="D30" r:id="rId3" display="http://www.cnblogs.com/aigongsi/archive/2012/10/09/2716086.html"/>
+    <hyperlink ref="D24" r:id="rId3" display="http://www.cnblogs.com/lr-ting/archive/2012/09/23/2699278.html"/>
   </hyperlinks>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -4021,159 +4032,159 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" ht="38.1" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" ht="39.75" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" ht="54.75" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" ht="39.75" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" ht="23.25" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" ht="40.5" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -4184,16 +4195,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://blog.zhaojie.me/"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://www.cnblogs.com/zhanglanyun/archive/2012/05/27/2519966.html"/>
-    <hyperlink ref="B8" r:id="rId3" display="http://www.cnblogs.com/anytao/archive/2007/09/14/must_net_catalog.html&#10;http://www.cnblogs.com/anytao/archive/2008/09/04/lovechina_bestclr_3rdfilter.html" tooltip="http://www.cnblogs.com/anytao/archive/2007/09/14/must_net_catalog.html_x005f_x000a_http://www.cnblogs.com/anytao/archive/2008/09/04/lovechina_bestclr_3rdfilter.html"/>
-    <hyperlink ref="B9" r:id="rId4" display="http://blog.csdn.net/peace_power/article/list/3"/>
-    <hyperlink ref="B10" r:id="rId5" display="http://blog.csdn.net/ituff/article/details/7614121"/>
-    <hyperlink ref="B11" r:id="rId6" display="http://blog.csdn.net/cadcisdhht/article/details/6187230"/>
-    <hyperlink ref="B12" r:id="rId7" display="http://www.cnblogs.com/fish-li/archive/2012/05/07/2486840.html"/>
-    <hyperlink ref="B13" r:id="rId8" display="http://www.cnblogs.com/goodhelper/archive/2009/11/20/springnet_index.html"/>
-    <hyperlink ref="B14" r:id="rId9" display="http://www.cnblogs.com/itech/archive/2009/02/19/1394268.html"/>
-    <hyperlink ref="B15" r:id="rId10" display="http://www.cnblogs.com/zhangjing230/archive/2012/05/17/2505711.html"/>
+    <hyperlink ref="B15" r:id="rId1" display="http://www.cnblogs.com/zhangjing230/archive/2012/05/17/2505711.html"/>
+    <hyperlink ref="B14" r:id="rId2" display="http://www.cnblogs.com/itech/archive/2009/02/19/1394268.html"/>
+    <hyperlink ref="B13" r:id="rId3" display="http://www.cnblogs.com/goodhelper/archive/2009/11/20/springnet_index.html"/>
+    <hyperlink ref="B12" r:id="rId4" display="http://www.cnblogs.com/fish-li/archive/2012/05/07/2486840.html"/>
+    <hyperlink ref="B11" r:id="rId5" display="http://blog.csdn.net/cadcisdhht/article/details/6187230"/>
+    <hyperlink ref="B10" r:id="rId6" display="http://blog.csdn.net/ituff/article/details/7614121"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://blog.csdn.net/peace_power/article/list/3"/>
+    <hyperlink ref="B8" r:id="rId8" display="http://www.cnblogs.com/anytao/archive/2007/09/14/must_net_catalog.html&#10;http://www.cnblogs.com/anytao/archive/2008/09/04/lovechina_bestclr_3rdfilter.html" tooltip="http://www.cnblogs.com/anytao/archive/2007/09/14/must_net_catalog.html_x005f_x000a_http://www.cnblogs.com/anytao/archive/2008/09/04/lovechina_bestclr_3rdfilter.html"/>
+    <hyperlink ref="B4" r:id="rId9" display="http://www.cnblogs.com/zhanglanyun/archive/2012/05/27/2519966.html"/>
+    <hyperlink ref="B2" r:id="rId10" display="http://blog.zhaojie.me/"/>
   </hyperlinks>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -4359,31 +4370,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="3" max="3" width="68.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:1">
+    <row r="1" ht="42" customHeight="1" spans="1:1">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1" spans="1:1">
+    <row r="2" ht="42" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" ht="29" customHeight="1" spans="1:1">
+      <c r="B2" s="66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="44" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4413,30 +4436,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="62" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="117.75" customHeight="1" spans="1:4">
       <c r="A2" s="63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="64"/>
     </row>
@@ -4445,21 +4468,21 @@
         <v>2.11</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:3">
       <c r="A4" s="62" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="28.5" customHeight="1" spans="1:3">
@@ -4467,10 +4490,10 @@
         <v>2.15</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="41.25" customHeight="1" spans="1:3">
@@ -4478,10 +4501,10 @@
         <v>2.17</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="90" customHeight="1" spans="1:3">
@@ -4489,10 +4512,10 @@
         <v>2.18</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="295.5" customHeight="1" spans="1:5">
@@ -4500,16 +4523,16 @@
         <v>2.19</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:3">
@@ -4517,10 +4540,10 @@
         <v>2.2</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="51.75" customHeight="1" spans="1:3">
@@ -4528,10 +4551,10 @@
         <v>2.21</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="53.25" customHeight="1" spans="1:3">
@@ -4539,10 +4562,10 @@
         <v>2.24</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="60.75" customHeight="1" spans="1:5">
@@ -4550,14 +4573,14 @@
         <v>2.25</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:3">
@@ -4565,10 +4588,10 @@
         <v>2.26</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" ht="44.25" customHeight="1" spans="1:3">
@@ -4576,10 +4599,10 @@
         <v>2.27</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:3">
@@ -4587,10 +4610,10 @@
         <v>2.28</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="74.25" customHeight="1" spans="1:3">
@@ -4598,10 +4621,10 @@
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:3">
@@ -4609,10 +4632,10 @@
         <v>3.4</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:3">
@@ -4620,10 +4643,10 @@
         <v>3.5</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" ht="54" spans="1:3">
@@ -4631,10 +4654,10 @@
         <v>3.6</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="102.75" customHeight="1" spans="1:3">
@@ -4642,21 +4665,21 @@
         <v>3.7</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="66" customHeight="1" spans="1:3">
       <c r="A21" s="62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:3">
@@ -4664,10 +4687,10 @@
         <v>3.11</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:3">
@@ -4675,10 +4698,10 @@
         <v>3.12</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" s="61" customFormat="1" ht="242.25" customHeight="1" spans="1:3">
@@ -4686,855 +4709,855 @@
         <v>3.13</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:3">
       <c r="A25" s="62" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" ht="45" customHeight="1" spans="1:3">
       <c r="A26" s="62" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" ht="39.75" customHeight="1" spans="1:3">
       <c r="A27" s="62" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1" spans="1:3">
       <c r="A28" s="62" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:3">
       <c r="A29" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="1:3">
       <c r="A30" s="62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:4">
       <c r="A31" s="62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="62" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="132.75" customHeight="1" spans="1:3">
       <c r="A34" s="62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="54" spans="1:3">
       <c r="A35" s="62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:3">
       <c r="A36" s="62" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:3">
       <c r="A37" s="62" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:3">
       <c r="A38" s="62" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:3">
       <c r="A41" s="62" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:3">
       <c r="A42" s="62" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="62" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" ht="52.5" customHeight="1" spans="1:3">
       <c r="A44" s="62" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:3">
       <c r="A45" s="62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" ht="94.5" spans="1:3">
       <c r="A46" s="62" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" ht="67.5" customHeight="1" spans="1:3">
       <c r="A47" s="62" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" ht="27" spans="1:3">
       <c r="A48" s="62" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" ht="27" spans="1:3">
       <c r="A49" s="62" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:3">
       <c r="A50" s="62" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" ht="81" spans="1:3">
       <c r="A51" s="62" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" ht="54" spans="1:3">
       <c r="A52" s="62" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" ht="108" spans="1:3">
       <c r="A53" s="62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:3">
       <c r="A54" s="62" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" ht="67.5" spans="1:3">
       <c r="A55" s="62" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" ht="67.5" spans="1:3">
       <c r="A56" s="62" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" ht="104.25" customHeight="1" spans="1:3">
       <c r="A57" s="62" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:3">
       <c r="A58" s="62" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" ht="102" customHeight="1" spans="1:3">
       <c r="A59" s="62" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" ht="158.25" customHeight="1" spans="1:3">
       <c r="A60" s="62" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C60" s="66" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" ht="40.5" spans="1:3">
       <c r="A61" s="62" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" ht="67.5" spans="1:3">
       <c r="A62" s="62" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" ht="67.5" spans="1:3">
       <c r="A63" s="62" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" ht="54" spans="1:3">
       <c r="A64" s="62" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C64" s="66" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" ht="81" spans="1:3">
       <c r="A65" s="62" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" ht="135" spans="1:3">
       <c r="A66" s="62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:3">
       <c r="A67" s="62" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" ht="81" spans="1:3">
       <c r="A68" s="62" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" ht="40.5" spans="1:3">
       <c r="A69" s="62" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" ht="40.5" spans="1:3">
       <c r="A70" s="62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" ht="256.5" spans="1:3">
       <c r="A71" s="62" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" ht="30.75" customHeight="1" spans="1:3">
       <c r="A72" s="62" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" ht="53.25" customHeight="1" spans="1:3">
       <c r="A73" s="62" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" ht="54" spans="1:3">
       <c r="A74" s="62" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" ht="27" spans="1:3">
       <c r="A75" s="62" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" ht="108" spans="1:3">
       <c r="A76" s="62" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" ht="67.5" spans="1:3">
       <c r="A77" s="62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:3">
       <c r="A78" s="62" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C78" s="66" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" ht="40.5" spans="1:3">
       <c r="A79" s="62" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" ht="67.5" spans="1:4">
       <c r="A80" s="62" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" ht="40.5" spans="1:3">
       <c r="A81" s="62" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" ht="27" spans="1:3">
       <c r="A82" s="62" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="62" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:4">
       <c r="A84" s="62" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C84" s="66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D84" s="66" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" ht="37.5" customHeight="1" spans="1:4">
       <c r="A85" s="62" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C85" s="66" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" ht="42" customHeight="1" spans="1:3">
       <c r="A86" s="62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C86" s="66" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" ht="39.75" customHeight="1" spans="1:2">
       <c r="A87" s="62" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" ht="36.75" customHeight="1" spans="1:2">
       <c r="A88" s="62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="62" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="62" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="27" spans="1:4">
       <c r="A91" s="62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C91" s="66" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D91" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" ht="40.5" spans="1:4">
       <c r="A92" s="62" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C92" s="66" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" ht="40.5" spans="1:3">
       <c r="A93" s="62" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C93" s="66" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" ht="67.5" spans="1:3">
       <c r="A94" s="62" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C94" s="66" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" ht="27" spans="1:3">
       <c r="A95" s="62" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C95" s="66" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" ht="40.5" spans="1:3">
       <c r="A96" s="62" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C96" s="66" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="62" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" ht="80.25" customHeight="1" spans="1:3">
       <c r="A98" s="62" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C98" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="62" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="62" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="2:2">
@@ -5564,99 +5587,99 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="57" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="59" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B6" s="60"/>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="59" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B7" s="60"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5688,133 +5711,133 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A1" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" ht="41.25" customHeight="1" spans="1:3">
       <c r="A2" s="54" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" ht="46.5" customHeight="1" spans="1:3">
       <c r="A3" s="54" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="54" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" ht="93.75" customHeight="1" spans="1:3">
       <c r="A4" s="54" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C4" s="54"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" ht="86.1" customHeight="1" spans="1:3">
       <c r="A13" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" ht="48" customHeight="1" spans="1:3">
       <c r="A15" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:2">
       <c r="A16" s="56" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
@@ -6064,168 +6087,168 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A1" s="42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" ht="83.25" customHeight="1" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" ht="57.95" customHeight="1" spans="1:3">
       <c r="A3" s="45" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" ht="30.95" customHeight="1" spans="1:3">
       <c r="A4" s="45" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="45" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="45"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="45" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="45"/>
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="1:3">
       <c r="A7" s="45" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C7" s="45"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:3">
       <c r="A8" s="45" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="45"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:3">
       <c r="A9" s="45" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="45"/>
     </row>
     <row r="10" ht="40.5" customHeight="1" spans="1:3">
       <c r="A10" s="17" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" ht="40.5" customHeight="1" spans="1:3">
       <c r="A11" s="15" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="15" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" ht="48.75" customHeight="1" spans="1:3">
       <c r="A12" s="48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="50"/>
     </row>
     <row r="13" ht="121.5" customHeight="1" spans="1:3">
       <c r="A13" s="50" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C13" s="51"/>
     </row>
     <row r="14" s="16" customFormat="1" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" s="16" customFormat="1" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" s="16" customFormat="1" spans="1:3">
       <c r="A16" s="52" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" s="16" customFormat="1" spans="1:3">
       <c r="A17" s="52" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:3">
       <c r="A18" s="45" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C18" s="45"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:3">
       <c r="A19" s="45" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="53" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="45"/>
@@ -6329,7 +6352,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>19</v>
@@ -6352,20 +6375,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C2" s="25">
         <v>41310</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H2" s="28"/>
     </row>
@@ -6374,23 +6397,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>330</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>327</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="40" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6537,7 +6560,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>19</v>
@@ -6560,23 +6583,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C2" s="25">
         <v>41310</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" ht="83.25" customHeight="1" spans="1:8">
@@ -6584,16 +6607,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C3" s="25">
         <v>41577</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
@@ -6604,16 +6627,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -6624,16 +6647,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -6644,16 +6667,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>346</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>343</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -6664,20 +6687,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H7" s="30"/>
     </row>
@@ -6686,640 +6709,640 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="35">
         <v>6</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="35">
         <v>6</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="V8" s="28"/>
       <c r="W8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="X8" s="30"/>
       <c r="Y8" s="35">
         <v>6</v>
       </c>
       <c r="Z8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AA8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AB8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AC8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AD8" s="28"/>
       <c r="AE8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF8" s="30"/>
       <c r="AG8" s="35">
         <v>6</v>
       </c>
       <c r="AH8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AJ8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AK8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AL8" s="28"/>
       <c r="AM8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AN8" s="30"/>
       <c r="AO8" s="35">
         <v>6</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AQ8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AR8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AS8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AT8" s="28"/>
       <c r="AU8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AV8" s="30"/>
       <c r="AW8" s="35">
         <v>6</v>
       </c>
       <c r="AX8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AY8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AZ8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="BA8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="BB8" s="28"/>
       <c r="BC8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="BD8" s="30"/>
       <c r="BE8" s="35">
         <v>6</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="BG8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="BH8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="BI8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="BJ8" s="28"/>
       <c r="BK8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="BL8" s="30"/>
       <c r="BM8" s="35">
         <v>6</v>
       </c>
       <c r="BN8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="BO8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="BP8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="BQ8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="BR8" s="28"/>
       <c r="BS8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="BT8" s="30"/>
       <c r="BU8" s="35">
         <v>6</v>
       </c>
       <c r="BV8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="BW8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="BX8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="BY8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="BZ8" s="28"/>
       <c r="CA8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="CB8" s="30"/>
       <c r="CC8" s="35">
         <v>6</v>
       </c>
       <c r="CD8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="CE8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="CF8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="CG8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="CH8" s="28"/>
       <c r="CI8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="CJ8" s="30"/>
       <c r="CK8" s="35">
         <v>6</v>
       </c>
       <c r="CL8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="CM8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="CN8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="CO8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="CP8" s="28"/>
       <c r="CQ8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="CR8" s="30"/>
       <c r="CS8" s="35">
         <v>6</v>
       </c>
       <c r="CT8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="CU8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="CV8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="CW8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="CX8" s="28"/>
       <c r="CY8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="CZ8" s="30"/>
       <c r="DA8" s="35">
         <v>6</v>
       </c>
       <c r="DB8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="DC8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="DD8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="DE8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="DF8" s="28"/>
       <c r="DG8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="DH8" s="30"/>
       <c r="DI8" s="35">
         <v>6</v>
       </c>
       <c r="DJ8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="DK8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="DL8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="DM8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="DN8" s="28"/>
       <c r="DO8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="DP8" s="30"/>
       <c r="DQ8" s="35">
         <v>6</v>
       </c>
       <c r="DR8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="DS8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="DT8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="DU8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="DV8" s="28"/>
       <c r="DW8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="DX8" s="30"/>
       <c r="DY8" s="35">
         <v>6</v>
       </c>
       <c r="DZ8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="EA8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="EB8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="EC8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="ED8" s="28"/>
       <c r="EE8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EF8" s="30"/>
       <c r="EG8" s="35">
         <v>6</v>
       </c>
       <c r="EH8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="EI8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="EJ8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="EK8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="EL8" s="28"/>
       <c r="EM8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EN8" s="30"/>
       <c r="EO8" s="35">
         <v>6</v>
       </c>
       <c r="EP8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="EQ8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="ER8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="ES8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="ET8" s="28"/>
       <c r="EU8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EV8" s="30"/>
       <c r="EW8" s="35">
         <v>6</v>
       </c>
       <c r="EX8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="EY8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="EZ8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="FA8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FB8" s="28"/>
       <c r="FC8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="FD8" s="30"/>
       <c r="FE8" s="35">
         <v>6</v>
       </c>
       <c r="FF8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FG8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FH8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="FI8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FJ8" s="28"/>
       <c r="FK8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="FL8" s="30"/>
       <c r="FM8" s="35">
         <v>6</v>
       </c>
       <c r="FN8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FO8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FP8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="FQ8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FR8" s="28"/>
       <c r="FS8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="FT8" s="30"/>
       <c r="FU8" s="35">
         <v>6</v>
       </c>
       <c r="FV8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FW8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FX8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="FY8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FZ8" s="28"/>
       <c r="GA8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="GB8" s="30"/>
       <c r="GC8" s="35">
         <v>6</v>
       </c>
       <c r="GD8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="GE8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="GF8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="GG8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="GH8" s="28"/>
       <c r="GI8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="GJ8" s="30"/>
       <c r="GK8" s="35">
         <v>6</v>
       </c>
       <c r="GL8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="GM8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="GN8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="GO8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="GP8" s="28"/>
       <c r="GQ8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="GR8" s="30"/>
       <c r="GS8" s="35">
         <v>6</v>
       </c>
       <c r="GT8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="GU8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="GV8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="GW8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="GX8" s="28"/>
       <c r="GY8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="GZ8" s="30"/>
       <c r="HA8" s="35">
         <v>6</v>
       </c>
       <c r="HB8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="HC8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="HD8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="HE8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="HF8" s="28"/>
       <c r="HG8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="HH8" s="30"/>
       <c r="HI8" s="35">
         <v>6</v>
       </c>
       <c r="HJ8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="HK8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="HL8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="HM8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="HN8" s="28"/>
       <c r="HO8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="HP8" s="30"/>
       <c r="HQ8" s="35">
         <v>6</v>
       </c>
       <c r="HR8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="HS8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="HT8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="HU8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="HV8" s="28"/>
       <c r="HW8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="HX8" s="30"/>
       <c r="HY8" s="35">
         <v>6</v>
       </c>
       <c r="HZ8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="IA8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="IB8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="IC8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="ID8" s="28"/>
       <c r="IE8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="IF8" s="30"/>
       <c r="IG8" s="35">
         <v>6</v>
       </c>
       <c r="IH8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="II8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="IJ8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="IK8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="IL8" s="28"/>
       <c r="IM8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="IN8" s="30"/>
       <c r="IO8" s="35">
         <v>6</v>
       </c>
       <c r="IP8" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="IQ8" s="32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="IR8" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="IS8" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="IT8" s="28"/>
       <c r="IU8" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="IV8" s="30"/>
     </row>

--- a/work.xlsx
+++ b/work.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477">
   <si>
     <t>事项</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>参考：http://www.cnblogs.com/haore147/p/3904494.html</t>
+  </si>
+  <si>
+    <t>测试：</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/ayanmw/p/3915699.html</t>
   </si>
   <si>
     <t>时间</t>
@@ -2535,7 +2541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2749,6 +2755,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3344,7 +3353,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>19</v>
@@ -3367,16 +3376,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -3387,16 +3396,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -3407,16 +3416,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -3427,16 +3436,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3447,14 +3456,14 @@
         <v>8</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3465,21 +3474,21 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" ht="51.95" customHeight="1" spans="1:8">
@@ -3487,16 +3496,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -3507,16 +3516,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -3527,21 +3536,21 @@
         <v>12</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>380</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:8">
@@ -3549,16 +3558,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -3569,16 +3578,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -3589,21 +3598,21 @@
         <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>389</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" ht="42.95" customHeight="1" spans="1:8">
@@ -3611,16 +3620,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -3631,16 +3640,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -3651,16 +3660,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -3671,16 +3680,16 @@
         <v>22</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -3691,16 +3700,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -3711,16 +3720,16 @@
         <v>24</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -3731,16 +3740,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -3751,16 +3760,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -3771,16 +3780,16 @@
         <v>27</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -3791,16 +3800,16 @@
         <v>28</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -3811,16 +3820,16 @@
         <v>29</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>421</v>
-      </c>
       <c r="D24" s="10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -3831,14 +3840,14 @@
         <v>30</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -3849,16 +3858,16 @@
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -3869,16 +3878,16 @@
         <v>32</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>428</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -3889,16 +3898,16 @@
         <v>33</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -3909,16 +3918,16 @@
         <v>34</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -3929,14 +3938,14 @@
         <v>35</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="21" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -3945,7 +3954,7 @@
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="18"/>
       <c r="B31" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -4032,159 +4041,159 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" ht="38.1" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" ht="39.75" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" ht="54.75" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" ht="39.75" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" ht="23.25" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" ht="40.5" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -4236,10 +4245,10 @@
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="22" t="s">
@@ -4290,7 +4299,7 @@
       <c r="C4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="84" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4337,7 +4346,7 @@
       <c r="B8" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="85" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4370,13 +4379,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="39.25" customWidth="1"/>
@@ -4409,7 +4418,18 @@
         <v>48</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="http://www.cnblogs.com/ayanmw/p/3915699.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -4436,30 +4456,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="117.75" customHeight="1" spans="1:4">
       <c r="A2" s="63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="64"/>
     </row>
@@ -4468,21 +4488,21 @@
         <v>2.11</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:3">
       <c r="A4" s="62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="28.5" customHeight="1" spans="1:3">
@@ -4490,10 +4510,10 @@
         <v>2.15</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="41.25" customHeight="1" spans="1:3">
@@ -4501,10 +4521,10 @@
         <v>2.17</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="90" customHeight="1" spans="1:3">
@@ -4512,10 +4532,10 @@
         <v>2.18</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="295.5" customHeight="1" spans="1:5">
@@ -4523,16 +4543,16 @@
         <v>2.19</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:3">
@@ -4540,10 +4560,10 @@
         <v>2.2</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" ht="51.75" customHeight="1" spans="1:3">
@@ -4551,10 +4571,10 @@
         <v>2.21</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="53.25" customHeight="1" spans="1:3">
@@ -4562,10 +4582,10 @@
         <v>2.24</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="60.75" customHeight="1" spans="1:5">
@@ -4573,14 +4593,14 @@
         <v>2.25</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:3">
@@ -4588,10 +4608,10 @@
         <v>2.26</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" ht="44.25" customHeight="1" spans="1:3">
@@ -4599,10 +4619,10 @@
         <v>2.27</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:3">
@@ -4610,10 +4630,10 @@
         <v>2.28</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="74.25" customHeight="1" spans="1:3">
@@ -4621,10 +4641,10 @@
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:3">
@@ -4632,10 +4652,10 @@
         <v>3.4</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:3">
@@ -4643,10 +4663,10 @@
         <v>3.5</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="54" spans="1:3">
@@ -4654,10 +4674,10 @@
         <v>3.6</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" ht="102.75" customHeight="1" spans="1:3">
@@ -4665,21 +4685,21 @@
         <v>3.7</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" ht="66" customHeight="1" spans="1:3">
       <c r="A21" s="62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:3">
@@ -4687,10 +4707,10 @@
         <v>3.11</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:3">
@@ -4698,10 +4718,10 @@
         <v>3.12</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" s="61" customFormat="1" ht="242.25" customHeight="1" spans="1:3">
@@ -4709,855 +4729,855 @@
         <v>3.13</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:3">
       <c r="A25" s="62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" ht="45" customHeight="1" spans="1:3">
       <c r="A26" s="62" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" ht="39.75" customHeight="1" spans="1:3">
       <c r="A27" s="62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1" spans="1:3">
       <c r="A28" s="62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:3">
       <c r="A29" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="1:3">
       <c r="A30" s="62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:4">
       <c r="A31" s="62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="62" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="132.75" customHeight="1" spans="1:3">
       <c r="A34" s="62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="54" spans="1:3">
       <c r="A35" s="62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:3">
       <c r="A36" s="62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:3">
       <c r="A37" s="62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:3">
       <c r="A38" s="62" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:3">
       <c r="A41" s="62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:3">
       <c r="A42" s="62" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="52.5" customHeight="1" spans="1:3">
       <c r="A44" s="62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:3">
       <c r="A45" s="62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="94.5" spans="1:3">
       <c r="A46" s="62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" ht="67.5" customHeight="1" spans="1:3">
       <c r="A47" s="62" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" ht="27" spans="1:3">
       <c r="A48" s="62" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" ht="27" spans="1:3">
       <c r="A49" s="62" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:3">
       <c r="A50" s="62" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" ht="81" spans="1:3">
       <c r="A51" s="62" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="54" spans="1:3">
       <c r="A52" s="62" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" ht="108" spans="1:3">
       <c r="A53" s="62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:3">
       <c r="A54" s="62" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" ht="67.5" spans="1:3">
       <c r="A55" s="62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" ht="67.5" spans="1:3">
       <c r="A56" s="62" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" ht="104.25" customHeight="1" spans="1:3">
       <c r="A57" s="62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:3">
       <c r="A58" s="62" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="102" customHeight="1" spans="1:3">
       <c r="A59" s="62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" ht="158.25" customHeight="1" spans="1:3">
       <c r="A60" s="62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C60" s="66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" ht="40.5" spans="1:3">
       <c r="A61" s="62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" ht="67.5" spans="1:3">
       <c r="A62" s="62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" ht="67.5" spans="1:3">
       <c r="A63" s="62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" ht="54" spans="1:3">
       <c r="A64" s="62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C64" s="66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" ht="81" spans="1:3">
       <c r="A65" s="62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" ht="135" spans="1:3">
       <c r="A66" s="62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:3">
       <c r="A67" s="62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" ht="81" spans="1:3">
       <c r="A68" s="62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" ht="40.5" spans="1:3">
       <c r="A69" s="62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" ht="40.5" spans="1:3">
       <c r="A70" s="62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" ht="256.5" spans="1:3">
       <c r="A71" s="62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" ht="30.75" customHeight="1" spans="1:3">
       <c r="A72" s="62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" ht="53.25" customHeight="1" spans="1:3">
       <c r="A73" s="62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" ht="54" spans="1:3">
       <c r="A74" s="62" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" ht="27" spans="1:3">
       <c r="A75" s="62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" ht="108" spans="1:3">
       <c r="A76" s="62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" ht="67.5" spans="1:3">
       <c r="A77" s="62" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:3">
       <c r="A78" s="62" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C78" s="66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" ht="40.5" spans="1:3">
       <c r="A79" s="62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" ht="67.5" spans="1:4">
       <c r="A80" s="62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" ht="40.5" spans="1:3">
       <c r="A81" s="62" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" ht="27" spans="1:3">
       <c r="A82" s="62" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:4">
       <c r="A84" s="62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C84" s="66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D84" s="66" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" ht="37.5" customHeight="1" spans="1:4">
       <c r="A85" s="62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C85" s="66" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D85" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" ht="42" customHeight="1" spans="1:3">
       <c r="A86" s="62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C86" s="66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" ht="39.75" customHeight="1" spans="1:2">
       <c r="A87" s="62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" ht="36.75" customHeight="1" spans="1:2">
       <c r="A88" s="62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="62" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" ht="27" spans="1:4">
       <c r="A91" s="62" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C91" s="66" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" ht="40.5" spans="1:4">
       <c r="A92" s="62" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C92" s="66" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" ht="40.5" spans="1:3">
       <c r="A93" s="62" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C93" s="66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" ht="67.5" spans="1:3">
       <c r="A94" s="62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C94" s="66" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" ht="27" spans="1:3">
       <c r="A95" s="62" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C95" s="66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" ht="40.5" spans="1:3">
       <c r="A96" s="62" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C96" s="66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="62" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" ht="80.25" customHeight="1" spans="1:3">
       <c r="A98" s="62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="62" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="2:2">
@@ -5587,99 +5607,99 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="57" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="59" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B6" s="60"/>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="59" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" s="60"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
         <v>273</v>
-      </c>
-      <c r="B13" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5711,133 +5731,133 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A1" s="42" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" ht="41.25" customHeight="1" spans="1:3">
       <c r="A2" s="54" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" ht="46.5" customHeight="1" spans="1:3">
       <c r="A3" s="54" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="54" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" ht="93.75" customHeight="1" spans="1:3">
       <c r="A4" s="54" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C4" s="54"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" ht="86.1" customHeight="1" spans="1:3">
       <c r="A13" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" ht="48" customHeight="1" spans="1:3">
       <c r="A15" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:2">
       <c r="A16" s="56" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
@@ -6087,168 +6107,168 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A1" s="42" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" ht="83.25" customHeight="1" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" ht="57.95" customHeight="1" spans="1:3">
       <c r="A3" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" ht="30.95" customHeight="1" spans="1:3">
       <c r="A4" s="45" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B4" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>307</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="45"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="45"/>
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="1:3">
       <c r="A7" s="45" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C7" s="45"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:3">
       <c r="A8" s="45" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="45"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:3">
       <c r="A9" s="45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="45"/>
     </row>
     <row r="10" ht="40.5" customHeight="1" spans="1:3">
       <c r="A10" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" ht="40.5" customHeight="1" spans="1:3">
       <c r="A11" s="15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="15" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" ht="48.75" customHeight="1" spans="1:3">
       <c r="A12" s="48" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="50"/>
     </row>
     <row r="13" ht="121.5" customHeight="1" spans="1:3">
       <c r="A13" s="50" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C13" s="51"/>
     </row>
     <row r="14" s="16" customFormat="1" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" s="16" customFormat="1" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" s="16" customFormat="1" spans="1:3">
       <c r="A16" s="52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" s="16" customFormat="1" spans="1:3">
       <c r="A17" s="52" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:3">
       <c r="A18" s="45" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C18" s="45"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:3">
       <c r="A19" s="45" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="53" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="45"/>
@@ -6352,7 +6372,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>19</v>
@@ -6375,20 +6395,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C2" s="25">
         <v>41310</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H2" s="28"/>
     </row>
@@ -6397,23 +6417,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>332</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>330</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="40" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6560,7 +6580,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>19</v>
@@ -6583,23 +6603,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C2" s="25">
         <v>41310</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" ht="83.25" customHeight="1" spans="1:8">
@@ -6607,16 +6627,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C3" s="25">
         <v>41577</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
@@ -6627,16 +6647,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -6647,16 +6667,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>348</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>346</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -6667,16 +6687,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -6687,20 +6707,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H7" s="30"/>
     </row>
@@ -6709,640 +6729,640 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>352</v>
-      </c>
       <c r="D8" s="30" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="35">
         <v>6</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="35">
         <v>6</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="V8" s="28"/>
       <c r="W8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="X8" s="30"/>
       <c r="Y8" s="35">
         <v>6</v>
       </c>
       <c r="Z8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AA8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AB8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AC8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AD8" s="28"/>
       <c r="AE8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF8" s="30"/>
       <c r="AG8" s="35">
         <v>6</v>
       </c>
       <c r="AH8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AJ8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AK8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL8" s="28"/>
       <c r="AM8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AN8" s="30"/>
       <c r="AO8" s="35">
         <v>6</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AQ8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AR8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AS8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AT8" s="28"/>
       <c r="AU8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AV8" s="30"/>
       <c r="AW8" s="35">
         <v>6</v>
       </c>
       <c r="AX8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AY8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AZ8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="BA8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BB8" s="28"/>
       <c r="BC8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="BD8" s="30"/>
       <c r="BE8" s="35">
         <v>6</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BG8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="BH8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="BI8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BJ8" s="28"/>
       <c r="BK8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="BL8" s="30"/>
       <c r="BM8" s="35">
         <v>6</v>
       </c>
       <c r="BN8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BO8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="BP8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="BQ8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BR8" s="28"/>
       <c r="BS8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="BT8" s="30"/>
       <c r="BU8" s="35">
         <v>6</v>
       </c>
       <c r="BV8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BW8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="BX8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="BY8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BZ8" s="28"/>
       <c r="CA8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="CB8" s="30"/>
       <c r="CC8" s="35">
         <v>6</v>
       </c>
       <c r="CD8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CE8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="CF8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="CG8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CH8" s="28"/>
       <c r="CI8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="CJ8" s="30"/>
       <c r="CK8" s="35">
         <v>6</v>
       </c>
       <c r="CL8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CM8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="CN8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="CO8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CP8" s="28"/>
       <c r="CQ8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="CR8" s="30"/>
       <c r="CS8" s="35">
         <v>6</v>
       </c>
       <c r="CT8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CU8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="CV8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="CW8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CX8" s="28"/>
       <c r="CY8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="CZ8" s="30"/>
       <c r="DA8" s="35">
         <v>6</v>
       </c>
       <c r="DB8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="DC8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="DD8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="DE8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="DF8" s="28"/>
       <c r="DG8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="DH8" s="30"/>
       <c r="DI8" s="35">
         <v>6</v>
       </c>
       <c r="DJ8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="DK8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="DL8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="DM8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="DN8" s="28"/>
       <c r="DO8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="DP8" s="30"/>
       <c r="DQ8" s="35">
         <v>6</v>
       </c>
       <c r="DR8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="DS8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="DT8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="DU8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="DV8" s="28"/>
       <c r="DW8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="DX8" s="30"/>
       <c r="DY8" s="35">
         <v>6</v>
       </c>
       <c r="DZ8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="EA8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="EB8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="EC8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="ED8" s="28"/>
       <c r="EE8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="EF8" s="30"/>
       <c r="EG8" s="35">
         <v>6</v>
       </c>
       <c r="EH8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="EI8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="EJ8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="EK8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="EL8" s="28"/>
       <c r="EM8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="EN8" s="30"/>
       <c r="EO8" s="35">
         <v>6</v>
       </c>
       <c r="EP8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="EQ8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="ER8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="ES8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="ET8" s="28"/>
       <c r="EU8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="EV8" s="30"/>
       <c r="EW8" s="35">
         <v>6</v>
       </c>
       <c r="EX8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="EY8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="EZ8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="FA8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="FB8" s="28"/>
       <c r="FC8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="FD8" s="30"/>
       <c r="FE8" s="35">
         <v>6</v>
       </c>
       <c r="FF8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FG8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="FH8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="FI8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="FJ8" s="28"/>
       <c r="FK8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="FL8" s="30"/>
       <c r="FM8" s="35">
         <v>6</v>
       </c>
       <c r="FN8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FO8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="FP8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="FQ8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="FR8" s="28"/>
       <c r="FS8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="FT8" s="30"/>
       <c r="FU8" s="35">
         <v>6</v>
       </c>
       <c r="FV8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FW8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="FX8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="FY8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="FZ8" s="28"/>
       <c r="GA8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="GB8" s="30"/>
       <c r="GC8" s="35">
         <v>6</v>
       </c>
       <c r="GD8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="GE8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="GF8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="GG8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="GH8" s="28"/>
       <c r="GI8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="GJ8" s="30"/>
       <c r="GK8" s="35">
         <v>6</v>
       </c>
       <c r="GL8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="GM8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="GN8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="GO8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="GP8" s="28"/>
       <c r="GQ8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="GR8" s="30"/>
       <c r="GS8" s="35">
         <v>6</v>
       </c>
       <c r="GT8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="GU8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="GV8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="GW8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="GX8" s="28"/>
       <c r="GY8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="GZ8" s="30"/>
       <c r="HA8" s="35">
         <v>6</v>
       </c>
       <c r="HB8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="HC8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="HD8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="HE8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="HF8" s="28"/>
       <c r="HG8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="HH8" s="30"/>
       <c r="HI8" s="35">
         <v>6</v>
       </c>
       <c r="HJ8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="HK8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="HL8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="HM8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="HN8" s="28"/>
       <c r="HO8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="HP8" s="30"/>
       <c r="HQ8" s="35">
         <v>6</v>
       </c>
       <c r="HR8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="HS8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="HT8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="HU8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="HV8" s="28"/>
       <c r="HW8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="HX8" s="30"/>
       <c r="HY8" s="35">
         <v>6</v>
       </c>
       <c r="HZ8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="IA8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="IB8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="IC8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="ID8" s="28"/>
       <c r="IE8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="IF8" s="30"/>
       <c r="IG8" s="35">
         <v>6</v>
       </c>
       <c r="IH8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="II8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="IJ8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="IK8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="IL8" s="28"/>
       <c r="IM8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="IN8" s="30"/>
       <c r="IO8" s="35">
         <v>6</v>
       </c>
       <c r="IP8" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="IQ8" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="IR8" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="IS8" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="IT8" s="28"/>
       <c r="IU8" s="29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="IV8" s="30"/>
     </row>
